--- a/Statistics/Assignment/More Statistical Questions.xlsx
+++ b/Statistics/Assignment/More Statistical Questions.xlsx
@@ -9,11 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Ans8" sheetId="1" r:id="rId1"/>
     <sheet name="Ans9" sheetId="3" r:id="rId2"/>
+    <sheet name="Ans10" sheetId="4" r:id="rId3"/>
+    <sheet name="Ans11" sheetId="5" r:id="rId4"/>
+    <sheet name="Ans12" sheetId="6" r:id="rId5"/>
+    <sheet name="Ans13" sheetId="7" r:id="rId6"/>
+    <sheet name="Ans14" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="32">
   <si>
     <t>Ages of the employees</t>
   </si>
@@ -79,6 +84,48 @@
   </si>
   <si>
     <t>Purchase Amount(in $)</t>
+  </si>
+  <si>
+    <t>Defect Type</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Ratings</t>
+  </si>
+  <si>
+    <t>Sales Figures (in thousands of dollars)</t>
+  </si>
+  <si>
+    <t>Response Times (in milliseconds)</t>
+  </si>
+  <si>
+    <t>Sales Figures (in thousands of dollars Region 1</t>
+  </si>
+  <si>
+    <t>Sales Figures (in thousands of dollars Region 2</t>
+  </si>
+  <si>
+    <t>Sales Figures (in thousands of dollars Region 3</t>
   </si>
 </sst>
 </file>
@@ -150,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -160,6 +207,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -176,6 +237,1708 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ans10'!$J$8:$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ans10'!$K$8:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-60BD-476D-8AD7-F8779CA92FD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="631614543"/>
+        <c:axId val="631614959"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="631614543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bin</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="631614959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="631614959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="631614543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ans11'!$N$16:$N$26</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ans11'!$O$16:$O$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F94-4FC2-A43E-CFFD2E260D88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="617322671"/>
+        <c:axId val="617327663"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="617322671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bin</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="617327663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="617327663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="617322671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ans12'!$I$14:$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.71428571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.42857143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.14285714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.85714286</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.57142857</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.28571429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ans12'!$J$14:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-018D-473E-96BA-21D19B040EEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="618638927"/>
+        <c:axId val="618639343"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="618638927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bin</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="618639343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="618639343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="618638927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ans13'!$I$21:$I$31</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ans13'!$J$21:$J$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B1CE-41E8-9426-CDA4EE7CACA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="618362047"/>
+        <c:axId val="618362879"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="618362047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bin</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="618362879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="618362879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="618362047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ans14'!$B$31:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.33333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.66666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ans14'!$C$31:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C05F-4529-9534-D1B606F53057}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="618360383"/>
+        <c:axId val="618366623"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="618360383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bin</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="618366623"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="618366623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="618360383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ans14'!$A$40:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ans14'!$B$40:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3E7B-4EA4-A5CE-1EE79D0F5443}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="618641423"/>
+        <c:axId val="631613295"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="618641423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bin</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="631613295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="631613295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="618641423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ans14'!$A$51:$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.66666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.33333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ans14'!$B$51:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3179-40DB-8EE5-59A09CD3D841}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="698265007"/>
+        <c:axId val="698261679"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="698265007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bin</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="698261679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="698261679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="698265007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2143125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1124,7 +2887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E12" sqref="E12:F26"/>
     </sheetView>
   </sheetViews>
@@ -1531,4 +3294,2459 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="J8" s="2">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O101"/>
+  <sheetViews>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15:O26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="9">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="9">
+        <v>8.9730235436641728E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="6">
+        <v>4</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0.89730235436641725</v>
+      </c>
+      <c r="N16" s="9">
+        <v>2</v>
+      </c>
+      <c r="O16" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.80515151515151551</v>
+      </c>
+      <c r="N17" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="9">
+        <v>-0.74525627211662515</v>
+      </c>
+      <c r="N18" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="9">
+        <v>-0.21090973977304461</v>
+      </c>
+      <c r="N19" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="9">
+        <v>3</v>
+      </c>
+      <c r="N20" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="O20" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="9">
+        <v>2</v>
+      </c>
+      <c r="N21" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="9">
+        <v>5</v>
+      </c>
+      <c r="N22" s="9">
+        <v>3.8</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="9">
+        <v>377</v>
+      </c>
+      <c r="N23" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O23" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="10">
+        <v>100</v>
+      </c>
+      <c r="N24" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="N25" s="9">
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>36</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>41</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <v>36.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>47</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.76292134561292446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>31</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="9">
+        <v>36</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>39</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="9">
+        <v>28</v>
+      </c>
+      <c r="I14" s="9">
+        <v>28</v>
+      </c>
+      <c r="J14" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>43</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="9">
+        <v>5.3946685699486459</v>
+      </c>
+      <c r="I15" s="9">
+        <v>30.714285714285715</v>
+      </c>
+      <c r="J15" s="9">
+        <v>6</v>
+      </c>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>37</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="9">
+        <v>29.10244897959177</v>
+      </c>
+      <c r="I16" s="9">
+        <v>33.428571428571431</v>
+      </c>
+      <c r="J16" s="9">
+        <v>8</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>30</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="9">
+        <v>-1.0037343654647266</v>
+      </c>
+      <c r="I17" s="9">
+        <v>36.142857142857139</v>
+      </c>
+      <c r="J17" s="9">
+        <v>8</v>
+      </c>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>34</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.14243838458359312</v>
+      </c>
+      <c r="I18" s="9">
+        <v>38.857142857142861</v>
+      </c>
+      <c r="J18" s="9">
+        <v>6</v>
+      </c>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>39</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="9">
+        <v>19</v>
+      </c>
+      <c r="I19" s="9">
+        <v>41.571428571428569</v>
+      </c>
+      <c r="J19" s="9">
+        <v>8</v>
+      </c>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>28</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="9">
+        <v>28</v>
+      </c>
+      <c r="I20" s="9">
+        <v>44.285714285714285</v>
+      </c>
+      <c r="J20" s="9">
+        <v>6</v>
+      </c>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>33</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="9">
+        <v>47</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="10">
+        <v>4</v>
+      </c>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>36</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1807</v>
+      </c>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>40</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="10">
+        <v>50</v>
+      </c>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>122</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>130</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>141</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <v>129.36000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>118</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1.3335242287588449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>125</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6">
+        <v>130.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>132</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="9">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>136</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="9">
+        <v>13.33524228758845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>128</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="9">
+        <v>177.82868686868724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>123</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="9">
+        <v>59.278612203890418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>132</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="9">
+        <v>-6.767408754217354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>138</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="9">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>126</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="9">
+        <v>13</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>129</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="9">
+        <v>148</v>
+      </c>
+      <c r="I21" s="9">
+        <v>13</v>
+      </c>
+      <c r="J21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>136</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="9">
+        <v>12936</v>
+      </c>
+      <c r="I22" s="9">
+        <v>26.5</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>127</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="10">
+        <v>100</v>
+      </c>
+      <c r="I23" s="9">
+        <v>40</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>130</v>
+      </c>
+      <c r="I24" s="9">
+        <v>53.5</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>122</v>
+      </c>
+      <c r="I25" s="9">
+        <v>67</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>125</v>
+      </c>
+      <c r="I26" s="9">
+        <v>80.5</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>133</v>
+      </c>
+      <c r="I27" s="9">
+        <v>94</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>140</v>
+      </c>
+      <c r="I28" s="9">
+        <v>107.5</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>126</v>
+      </c>
+      <c r="I29" s="9">
+        <v>121</v>
+      </c>
+      <c r="J29" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>133</v>
+      </c>
+      <c r="I30" s="9">
+        <v>134.5</v>
+      </c>
+      <c r="J30" s="9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>135</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>44</v>
+      </c>
+      <c r="B10">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9">
+        <v>40.4</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9">
+        <v>32.5</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1.013245610238044</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.9574271077563381</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.81649658092772592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="9">
+        <v>40.5</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="9">
+        <v>32.5</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3.2041639575194441</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="9">
+        <v>3.0276503540974917</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="9">
+        <v>2.5819888974716112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="9">
+        <v>10.266666666666666</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="9">
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="9">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="9">
+        <v>-0.84183673469387843</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="9">
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="9">
+        <v>-0.86249999999999938</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="9">
+        <v>-0.20063178769254245</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="9">
+        <v>10</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="9">
+        <v>9</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="9">
+        <v>35</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="9">
+        <v>28</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="9">
+        <v>45</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="9">
+        <v>37</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="9">
+        <v>404</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="9">
+        <v>325</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="9">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="10">
+        <v>10</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="10">
+        <v>10</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="9">
+        <v>35</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="9">
+        <v>38.333333333333336</v>
+      </c>
+      <c r="C32" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="9">
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C33" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>28</v>
+      </c>
+      <c r="B40" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>31</v>
+      </c>
+      <c r="B41" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>34</v>
+      </c>
+      <c r="B42" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>37</v>
+      </c>
+      <c r="B51" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>39.666666666666664</v>
+      </c>
+      <c r="B52" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>42.333333333333336</v>
+      </c>
+      <c r="B53" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="10">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>